--- a/New-ID-5th-Settelment(NotSentYet).xlsx
+++ b/New-ID-5th-Settelment(NotSentYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,243 @@
   </si>
   <si>
     <t>Habiba Nassar</t>
+  </si>
+  <si>
+    <t>ميدان ابن الحكم</t>
+  </si>
+  <si>
+    <t>اسلام عاشور</t>
+  </si>
+  <si>
+    <t>Eslam Ashour</t>
+  </si>
+  <si>
+    <t>هليوبليس</t>
+  </si>
+  <si>
+    <t>ابراهيم عبد الرحمن</t>
+  </si>
+  <si>
+    <t>1120024668 / 1070804895</t>
+  </si>
+  <si>
+    <t>Ibrahim AbdelRahman</t>
+  </si>
+  <si>
+    <t>روكسي</t>
+  </si>
+  <si>
+    <t>محمود كمال</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamal</t>
+  </si>
+  <si>
+    <t>احمد حسين</t>
+  </si>
+  <si>
+    <t>Ahmed Hussein</t>
+  </si>
+  <si>
+    <t>باسل هشام</t>
+  </si>
+  <si>
+    <t>Bassel Hisham</t>
+  </si>
+  <si>
+    <t>سلم صقر قريش</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>محمد نهاد</t>
+  </si>
+  <si>
+    <t>Mohamed Nihad</t>
+  </si>
+  <si>
+    <t>المرج</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>أسماء نبيل عبد الوهاب عيسى</t>
+  </si>
+  <si>
+    <t>1033733895 / 1003771118</t>
+  </si>
+  <si>
+    <t>Asmaa Nabil Abdelwahab Eissa</t>
+  </si>
+  <si>
+    <t>الجزيرة</t>
+  </si>
+  <si>
+    <t>م - الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>احمد عادل</t>
+  </si>
+  <si>
+    <t>Ahmed Adel</t>
+  </si>
+  <si>
+    <t>بوابة 6</t>
+  </si>
+  <si>
+    <t>مصطفى كلش</t>
+  </si>
+  <si>
+    <t>Moustafa Kallash</t>
+  </si>
+  <si>
+    <t>هبة الله محمد</t>
+  </si>
+  <si>
+    <t>1091754773 // 249122970207 WPP</t>
+  </si>
+  <si>
+    <t>Hibatalla Mohamed Ali Mohamed</t>
+  </si>
+  <si>
+    <t>ماريو رامي مكرم أمين</t>
+  </si>
+  <si>
+    <t>1017467089 // +79084663023</t>
+  </si>
+  <si>
+    <t>Mario Ramy Makram Amin</t>
+  </si>
+  <si>
+    <t>وليد عادل</t>
+  </si>
+  <si>
+    <t>Elwaleed Abuagla</t>
+  </si>
+  <si>
+    <t>ارابيلا</t>
+  </si>
+  <si>
+    <t>وفاء صلاح</t>
+  </si>
+  <si>
+    <t>Wafaa Salah</t>
+  </si>
+  <si>
+    <t>ميدان رابعة</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>علاء ابراهيم عبد العزيز محمد</t>
+  </si>
+  <si>
+    <t>Alaa Mohamed</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>محمد اسامة</t>
+  </si>
+  <si>
+    <t>Mohamed Osama</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
+  </si>
+  <si>
+    <t>ندى ناجي</t>
+  </si>
+  <si>
+    <t>Nada Nagi</t>
+  </si>
+  <si>
+    <t>كشك اللحمه</t>
+  </si>
+  <si>
+    <t>و - الشروق</t>
+  </si>
+  <si>
+    <t>أنس هاني علي</t>
+  </si>
+  <si>
+    <t>Anas Hany Elgharabawy</t>
+  </si>
+  <si>
+    <t>سحر محمد</t>
+  </si>
+  <si>
+    <t>Sahar Mohammed</t>
+  </si>
+  <si>
+    <t>بوابة 1</t>
+  </si>
+  <si>
+    <t>و - مدينتي</t>
+  </si>
+  <si>
+    <t>زياد احمد</t>
+  </si>
+  <si>
+    <t>Ziad Ahmed</t>
+  </si>
+  <si>
+    <t>مدينه بدر</t>
+  </si>
+  <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>عبد العظيم دياب</t>
+  </si>
+  <si>
+    <t>Abdalazem Diab</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>يوسف فؤاد</t>
+  </si>
+  <si>
+    <t>Youssef Fouad</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>نورالدين ابراهيم</t>
+  </si>
+  <si>
+    <t>1146697451-1070819036</t>
+  </si>
+  <si>
+    <t>Noureldin ibrahim</t>
+  </si>
+  <si>
+    <t>ميدان الحدائق</t>
+  </si>
+  <si>
+    <t>حدائق القبة</t>
+  </si>
+  <si>
+    <t>مؤمن مدحت</t>
+  </si>
+  <si>
+    <t>Momen Medhat</t>
+  </si>
+  <si>
+    <t>احمد عبد العزيز</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelaziz</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1322,7 +1559,7 @@
     <col min="2" max="2" width="11.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="27.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="17.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="22.8909090909091" customWidth="1"/>
     <col min="6" max="6" width="32.9090909090909" customWidth="1"/>
     <col min="7" max="8" width="29.5454545454545" customWidth="1"/>
   </cols>
@@ -1428,148 +1665,480 @@
       </c>
     </row>
     <row r="6" ht="15.25" spans="2:7">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B6" s="4">
+        <v>10334372</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1001984292</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="2:7">
+      <c r="B7" s="4">
+        <v>10334447</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="2:7">
+      <c r="B8" s="4">
+        <v>10334375</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1110092210</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="2:7">
+      <c r="B9" s="4">
+        <v>10334449</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1112246872</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="2:7">
+      <c r="B10" s="4">
+        <v>10334381</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1070869955</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="2:7">
+      <c r="B11" s="4">
+        <v>10334342</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1155235315</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="2:7">
+      <c r="B12" s="4">
+        <v>10318448</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:7">
+      <c r="B13" s="4">
+        <v>10334451</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1028515847</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="2:7">
+      <c r="B14" s="4">
+        <v>10334398</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1142757572</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="2:7">
+      <c r="B15" s="4">
+        <v>10334368</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="2:7">
+      <c r="B16" s="4">
+        <v>10334465</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="2:7">
+      <c r="B17" s="4">
+        <v>10334366</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1556051017</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="2:7">
+      <c r="B18" s="4">
+        <v>10334476</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="2:7">
+      <c r="B19" s="4">
+        <v>10334370</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1145486915</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:7">
+      <c r="B20" s="4">
+        <v>10334393</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:7">
+      <c r="B21" s="4">
+        <v>10334367</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1507537460</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="2:7">
+      <c r="B22" s="4">
+        <v>10334343</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1024422223</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="2:7">
+      <c r="B23" s="4">
+        <v>10334475</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1142634858</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="2:7">
+      <c r="B24" s="4">
+        <v>10334395</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1553553976</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="2:7">
+      <c r="B25" s="4">
+        <v>10334423</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1008797315</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:7">
+      <c r="B26" s="4">
+        <v>10273655</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1220100184</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="2:7">
+      <c r="B27" s="4">
+        <v>10287526</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4">
+        <v>10334497</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1123940404</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="2:7">
+      <c r="B29" s="4">
+        <v>10334495</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1140040830</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/New-ID-5th-Settelment(NotSentYet).xlsx
+++ b/New-ID-5th-Settelment(NotSentYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -219,6 +219,339 @@
   </si>
   <si>
     <t>Mostafa Gad</t>
+  </si>
+  <si>
+    <t>الخلفاوي</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>افرام رشدي واصف بهمن دوس</t>
+  </si>
+  <si>
+    <t>Afram Roshdi Wassef Behman Dous</t>
+  </si>
+  <si>
+    <t>ميدان العباسة</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>أندرو حشمت</t>
+  </si>
+  <si>
+    <t>Andrew Heshmat</t>
+  </si>
+  <si>
+    <t>إيمان أسامة صديق</t>
+  </si>
+  <si>
+    <t>Eman Osama sedig</t>
+  </si>
+  <si>
+    <t>عمر افندي</t>
+  </si>
+  <si>
+    <t>حازم سليمان</t>
+  </si>
+  <si>
+    <t>Hazem Suliman</t>
+  </si>
+  <si>
+    <t>حسام محمد</t>
+  </si>
+  <si>
+    <t>Hossam Mohammed</t>
+  </si>
+  <si>
+    <t>بوابة 2 جديدة</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>رأفة حسن علي</t>
+  </si>
+  <si>
+    <t>Rafa Hassan Ali</t>
+  </si>
+  <si>
+    <t>مدخل بدر</t>
+  </si>
+  <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>رأفة صلاح</t>
+  </si>
+  <si>
+    <t>Raffa Salah</t>
+  </si>
+  <si>
+    <t>رحمة مدثر</t>
+  </si>
+  <si>
+    <t>Rahma Modathir</t>
+  </si>
+  <si>
+    <t>سارة حاتم</t>
+  </si>
+  <si>
+    <t>Sarah Hatim</t>
+  </si>
+  <si>
+    <t>المرج</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>ساره فتحي</t>
+  </si>
+  <si>
+    <t>Sarah Fathi</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
+    <t>شروق تيسير</t>
+  </si>
+  <si>
+    <t>Shrouq Taiseer</t>
+  </si>
+  <si>
+    <t>السواح</t>
+  </si>
+  <si>
+    <t>شروق حمدي</t>
+  </si>
+  <si>
+    <t>Shrouq Hamdy</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>شهد صابر</t>
+  </si>
+  <si>
+    <t>Shahd Saber</t>
+  </si>
+  <si>
+    <t>صالح عمير</t>
+  </si>
+  <si>
+    <t>1286978689 / 249961368405 / 1065721642</t>
+  </si>
+  <si>
+    <t>Salih Omer</t>
+  </si>
+  <si>
+    <t>عبد الرحمن اكرم</t>
+  </si>
+  <si>
+    <t>Abdelrahman Akram</t>
+  </si>
+  <si>
+    <t>عز الدين اشرف</t>
+  </si>
+  <si>
+    <t>Ezzaldeen Ashraf</t>
+  </si>
+  <si>
+    <t>الجزيرة</t>
+  </si>
+  <si>
+    <t>علي الجندي</t>
+  </si>
+  <si>
+    <t>Ali Elgendy</t>
+  </si>
+  <si>
+    <t>المحكمة الدستورية</t>
+  </si>
+  <si>
+    <t>علي عبد النبي</t>
+  </si>
+  <si>
+    <t>Aly Abdelnaby</t>
+  </si>
+  <si>
+    <t>اول عباس</t>
+  </si>
+  <si>
+    <t>عمرو عرفة</t>
+  </si>
+  <si>
+    <t>1013765188 / 420776449720</t>
+  </si>
+  <si>
+    <t>Amr Arafa</t>
+  </si>
+  <si>
+    <t>الطوابق</t>
+  </si>
+  <si>
+    <t>فاطمة مصطفى</t>
+  </si>
+  <si>
+    <t>Fatma Mostafa</t>
+  </si>
+  <si>
+    <t>التوحيد والنور</t>
+  </si>
+  <si>
+    <t>فرح محمد</t>
+  </si>
+  <si>
+    <t>Farah Mohamed</t>
+  </si>
+  <si>
+    <t>فيلوباتير أفيل</t>
+  </si>
+  <si>
+    <t>Felobater Adel</t>
+  </si>
+  <si>
+    <t>كريم امجد</t>
+  </si>
+  <si>
+    <t>Kareem Amgad</t>
+  </si>
+  <si>
+    <t>مدخل حلوان الاتوستراد</t>
+  </si>
+  <si>
+    <t>لجين عبد المنعم</t>
+  </si>
+  <si>
+    <t>1116381472 / 249115567003</t>
+  </si>
+  <si>
+    <t>Lojain Abdelmoneim</t>
+  </si>
+  <si>
+    <t>مجذوب عوض</t>
+  </si>
+  <si>
+    <t>Magzoub Awad</t>
+  </si>
+  <si>
+    <t>محمد الشافعي</t>
+  </si>
+  <si>
+    <t>Muhammad Al Shafey</t>
+  </si>
+  <si>
+    <t>الغاز</t>
+  </si>
+  <si>
+    <t>محمد حشيش</t>
+  </si>
+  <si>
+    <t>Mohamed Hasheesh</t>
+  </si>
+  <si>
+    <t>وتر واي</t>
+  </si>
+  <si>
+    <t>محمد سامي</t>
+  </si>
+  <si>
+    <t>Mohamed Sami</t>
+  </si>
+  <si>
+    <t>محمد صوان</t>
+  </si>
+  <si>
+    <t>Mohamed Sawan</t>
+  </si>
+  <si>
+    <t>محمد عبد المعز</t>
+  </si>
+  <si>
+    <t>Muhammad Abdulmo'ez</t>
+  </si>
+  <si>
+    <t>محمود احمد</t>
+  </si>
+  <si>
+    <t>Mahmoud Ahmed</t>
+  </si>
+  <si>
+    <t>سلم صقر قريش</t>
+  </si>
+  <si>
+    <t>مصطفى اشرف</t>
+  </si>
+  <si>
+    <t>Mostafa Ashraf</t>
+  </si>
+  <si>
+    <t>هليوبليس</t>
+  </si>
+  <si>
+    <t>معتصم احمد</t>
+  </si>
+  <si>
+    <t>Motassem Ahmed</t>
+  </si>
+  <si>
+    <t>مهاد عبدالرحمن</t>
+  </si>
+  <si>
+    <t>Mahad Abdulrahman</t>
+  </si>
+  <si>
+    <t>بنزينة وطنية</t>
+  </si>
+  <si>
+    <t>ندى ياسر</t>
+  </si>
+  <si>
+    <t>Nada Yasser</t>
+  </si>
+  <si>
+    <t>هالة عبد العزيز</t>
+  </si>
+  <si>
+    <t>Hala Abdelaziz</t>
+  </si>
+  <si>
+    <t>يارا جمعة</t>
+  </si>
+  <si>
+    <t>Yara Gomaa</t>
+  </si>
+  <si>
+    <t>ياسمين أسامة</t>
+  </si>
+  <si>
+    <t>Jasmine Osama</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>يوسف زكريا</t>
+  </si>
+  <si>
+    <t>1063007767 / 1001978187</t>
+  </si>
+  <si>
+    <t>Youssef Zakaria</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
+  </si>
+  <si>
+    <t>يوسف طارق زين</t>
+  </si>
+  <si>
+    <t>Youssef Tarek Zein</t>
   </si>
 </sst>
 </file>
@@ -894,7 +1227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +1238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1443,10 +1779,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B18" sqref="B18:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1799,6 +2135,806 @@
         <v>63</v>
       </c>
     </row>
+    <row r="18" ht="15.25" spans="2:7">
+      <c r="B18" s="5">
+        <v>10337751</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1205004224</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="2:7">
+      <c r="B19" s="5">
+        <v>10337782</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1018150598</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:7">
+      <c r="B20" s="5">
+        <v>10337742</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1508710010</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:7">
+      <c r="B21" s="5">
+        <v>10337745</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1016303177</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="2:7">
+      <c r="B22" s="5">
+        <v>10337778</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1127002549</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="2:7">
+      <c r="B23" s="5">
+        <v>10337736</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1500338864</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="2:7">
+      <c r="B24" s="5">
+        <v>10337777</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1128690675</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="2:7">
+      <c r="B25" s="5">
+        <v>10337744</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1148278594</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:7">
+      <c r="B26" s="5">
+        <v>10337788</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1553225300</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="2:7">
+      <c r="B27" s="5">
+        <v>10337783</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1004404507</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="2:7">
+      <c r="B28" s="5">
+        <v>10337776</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1277329318</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="2:7">
+      <c r="B29" s="5">
+        <v>10337709</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1126055226</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="2:7">
+      <c r="B30" s="5">
+        <v>10292203</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1098417947</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="2:7">
+      <c r="B31" s="5">
+        <v>10337780</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="2:7">
+      <c r="B32" s="5">
+        <v>10337666</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1017273512</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="2:7">
+      <c r="B33" s="5">
+        <v>10337730</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1060778921</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="2:7">
+      <c r="B34" s="5">
+        <v>10337753</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1092042039</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="2:7">
+      <c r="B35" s="5">
+        <v>10337665</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1008871412</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="2:7">
+      <c r="B36" s="5">
+        <v>10337749</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="2:7">
+      <c r="B37" s="5">
+        <v>10337785</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1015668218</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="2:7">
+      <c r="B38" s="5">
+        <v>10337663</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1117170993</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="2:7">
+      <c r="B39" s="5">
+        <v>10337757</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1207075081</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="2:7">
+      <c r="B40" s="5">
+        <v>10337717</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1206446113</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="2:7">
+      <c r="B41" s="5">
+        <v>10337737</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="2:7">
+      <c r="B42" s="5">
+        <v>10337764</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1006463109</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="2:7">
+      <c r="B43" s="5">
+        <v>10335041</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1062969212</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="2:7">
+      <c r="B44" s="5">
+        <v>10337728</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1060025071</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="2:7">
+      <c r="B45" s="5">
+        <v>10337750</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1145300313</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="2:7">
+      <c r="B46" s="5">
+        <v>10337781</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1505331945</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="2:7">
+      <c r="B47" s="5">
+        <v>10337664</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1102622034</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="2:7">
+      <c r="B48" s="5">
+        <v>10337716</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1012097623</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="2:7">
+      <c r="B49" s="5">
+        <v>10337779</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1145782004</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="2:7">
+      <c r="B50" s="5">
+        <v>10337715</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1125925881</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="2:7">
+      <c r="B51" s="5">
+        <v>10337733</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1102314764</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="2:7">
+      <c r="B52" s="5">
+        <v>10337732</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1060571329</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="2:7">
+      <c r="B53" s="5">
+        <v>10337738</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1142128202</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="2:7">
+      <c r="B54" s="5">
+        <v>10337789</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1027632056</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="2:7">
+      <c r="B55" s="5">
+        <v>10337713</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1029970353</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="2:7">
+      <c r="B56" s="5">
+        <v>10337784</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="2:7">
+      <c r="B57" s="5">
+        <v>10337712</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1091057261</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/New-ID-5th-Settelment(NotSentYet).xlsx
+++ b/New-ID-5th-Settelment(NotSentYet).xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -198,6 +198,435 @@
   </si>
   <si>
     <t>Yousra Mubarak</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>احمد المنياوي</t>
+  </si>
+  <si>
+    <t>Ahmed Elmenawy</t>
+  </si>
+  <si>
+    <t>سلم صقر قريش</t>
+  </si>
+  <si>
+    <t>كريم علي احمد</t>
+  </si>
+  <si>
+    <t>1069370534 / 1114871034</t>
+  </si>
+  <si>
+    <t>Kareem Ali ahmed</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>منيبة كرار</t>
+  </si>
+  <si>
+    <t>Muniba Karar</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>دانيا الوليد عبد القادر</t>
+  </si>
+  <si>
+    <t>Dania Elwalid Abdulgdir</t>
+  </si>
+  <si>
+    <t>نور هشام</t>
+  </si>
+  <si>
+    <t>1069935066 / 1282029756</t>
+  </si>
+  <si>
+    <t>Nour Hisham</t>
+  </si>
+  <si>
+    <t>المحكمة</t>
+  </si>
+  <si>
+    <t>شريف نجيب</t>
+  </si>
+  <si>
+    <t>Sherif Naguib</t>
+  </si>
+  <si>
+    <t>ميدان ابن الحكم</t>
+  </si>
+  <si>
+    <t>زاهد صلاح الدين</t>
+  </si>
+  <si>
+    <t>Zahed Salaheldin</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>احمد حاتم</t>
+  </si>
+  <si>
+    <t>Hatem Ahmed</t>
+  </si>
+  <si>
+    <t>سلم البارون</t>
+  </si>
+  <si>
+    <t>ادهم النبراوي</t>
+  </si>
+  <si>
+    <t>Adham Elnabarawi</t>
+  </si>
+  <si>
+    <t>ألوك مايوم</t>
+  </si>
+  <si>
+    <t>Aluk Mayom</t>
+  </si>
+  <si>
+    <t>تشول بول تشول</t>
+  </si>
+  <si>
+    <t>Chol Bol Chol</t>
+  </si>
+  <si>
+    <t>حازم دياب</t>
+  </si>
+  <si>
+    <t>Hazem Diab</t>
+  </si>
+  <si>
+    <t>مدخل حلوان الاتوستراد</t>
+  </si>
+  <si>
+    <t>ملاك محمد</t>
+  </si>
+  <si>
+    <t>Malak mohamed</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
+  </si>
+  <si>
+    <t>ياسين عمرو</t>
+  </si>
+  <si>
+    <t>Yassin Amr</t>
+  </si>
+  <si>
+    <t>الغاز</t>
+  </si>
+  <si>
+    <t>حازم حسام</t>
+  </si>
+  <si>
+    <t>Hazem Hossam</t>
+  </si>
+  <si>
+    <t>محمد احمد</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>WAX1</t>
+  </si>
+  <si>
+    <t>الجزيرة</t>
+  </si>
+  <si>
+    <t>عمر بكري</t>
+  </si>
+  <si>
+    <t>Omer Bakri</t>
+  </si>
+  <si>
+    <t>بوابة 13</t>
+  </si>
+  <si>
+    <t>يحيى لطفي</t>
+  </si>
+  <si>
+    <t>Yehia Lotfy</t>
+  </si>
+  <si>
+    <t>النافورة</t>
+  </si>
+  <si>
+    <t>محمد نور</t>
+  </si>
+  <si>
+    <t>1102858041/1124701660</t>
+  </si>
+  <si>
+    <t>Mohamed Nour</t>
+  </si>
+  <si>
+    <t>عبدالله اشرف</t>
+  </si>
+  <si>
+    <t>1044758200 / 249904396614</t>
+  </si>
+  <si>
+    <t>Abdalla Ashraf</t>
+  </si>
+  <si>
+    <t>احمد انطونيو</t>
+  </si>
+  <si>
+    <t>Ahmad Antonio</t>
+  </si>
+  <si>
+    <t>كشري هند الحي العاشر</t>
+  </si>
+  <si>
+    <t>آية عاطف</t>
+  </si>
+  <si>
+    <t>Aya Atef</t>
+  </si>
+  <si>
+    <t>فاطمة الزهراء</t>
+  </si>
+  <si>
+    <t>Fatimah Azzahra</t>
+  </si>
+  <si>
+    <t>محمود البنداري</t>
+  </si>
+  <si>
+    <t>Mahmoud Elbendare</t>
+  </si>
+  <si>
+    <t>ريم نصر محمد</t>
+  </si>
+  <si>
+    <t>249900480866/1021818921</t>
+  </si>
+  <si>
+    <t>Reem Nasr Mohamed</t>
+  </si>
+  <si>
+    <t>طارق نصر محمد</t>
+  </si>
+  <si>
+    <t>Tarig Nasr Mohamed</t>
+  </si>
+  <si>
+    <t>كشك اللحمة</t>
+  </si>
+  <si>
+    <t>و - الشروق</t>
+  </si>
+  <si>
+    <t>احمد سيد</t>
+  </si>
+  <si>
+    <t>Ahmed Sayed</t>
+  </si>
+  <si>
+    <t>مصطفى عثمان</t>
+  </si>
+  <si>
+    <t>Mostafa Osman</t>
+  </si>
+  <si>
+    <t>احمد قرضاوي</t>
+  </si>
+  <si>
+    <t>Ahmed Kardawi</t>
+  </si>
+  <si>
+    <t>لينا طارق</t>
+  </si>
+  <si>
+    <t>1145783124/1124542582</t>
+  </si>
+  <si>
+    <t>Lina Tarig</t>
+  </si>
+  <si>
+    <t>رانيا عبد الرحمن</t>
+  </si>
+  <si>
+    <t>Rania Abdelrahman</t>
+  </si>
+  <si>
+    <t>مدخل بدر</t>
+  </si>
+  <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>سجا عامر</t>
+  </si>
+  <si>
+    <t>Saga Amer</t>
+  </si>
+  <si>
+    <t>TAX3</t>
+  </si>
+  <si>
+    <t>احمد عبد المطلب</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelmotaleb</t>
+  </si>
+  <si>
+    <t>TAX4</t>
+  </si>
+  <si>
+    <t>آية السيد</t>
+  </si>
+  <si>
+    <t>Aya elsayed</t>
+  </si>
+  <si>
+    <t>بسنت بهاء</t>
+  </si>
+  <si>
+    <t>Bassant Bahaa</t>
+  </si>
+  <si>
+    <t>رؤى أحمد</t>
+  </si>
+  <si>
+    <t>Roaa Ahmed</t>
+  </si>
+  <si>
+    <t>قسم الويلي</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>جانا مصلح</t>
+  </si>
+  <si>
+    <t>Jana mosleh</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
+    <t>سما طارق</t>
+  </si>
+  <si>
+    <t>Sama Tarek</t>
+  </si>
+  <si>
+    <t>عبد الرحمن عادل</t>
+  </si>
+  <si>
+    <t>Abdelrahman Adel</t>
+  </si>
+  <si>
+    <t>TAX5</t>
+  </si>
+  <si>
+    <t>ولي العهد</t>
+  </si>
+  <si>
+    <t>حدائق القبة</t>
+  </si>
+  <si>
+    <t>كريمة أحمد</t>
+  </si>
+  <si>
+    <t>Kareema Ahmed</t>
+  </si>
+  <si>
+    <t>معاذ يوسف</t>
+  </si>
+  <si>
+    <t>Moaaz Youssef</t>
+  </si>
+  <si>
+    <t>احمد عمرو</t>
+  </si>
+  <si>
+    <t>Ahmed Amr</t>
+  </si>
+  <si>
+    <t>TAX6</t>
+  </si>
+  <si>
+    <t>أمل جاد</t>
+  </si>
+  <si>
+    <t>Aml Gad</t>
+  </si>
+  <si>
+    <t>TAX7</t>
+  </si>
+  <si>
+    <t>اسلام سيد</t>
+  </si>
+  <si>
+    <t>Islam Sayed</t>
+  </si>
+  <si>
+    <t>أسامة أيمن</t>
+  </si>
+  <si>
+    <t>Osama Ayman</t>
+  </si>
+  <si>
+    <t>TAX8</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
+    <t>يوسف محمود</t>
+  </si>
+  <si>
+    <t>Yousef Mahmoud</t>
+  </si>
+  <si>
+    <t>التوحيد والنور</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>ليلى مجدي</t>
+  </si>
+  <si>
+    <t>Laila Magdy</t>
+  </si>
+  <si>
+    <t>عبد الرحمن الشريف</t>
+  </si>
+  <si>
+    <t>Abdelrahman Sherif</t>
+  </si>
+  <si>
+    <t>ميدان رابعة</t>
+  </si>
+  <si>
+    <t>نور فؤاد</t>
+  </si>
+  <si>
+    <t>Nour Fouad</t>
+  </si>
+  <si>
+    <t>TAX9</t>
+  </si>
+  <si>
+    <t>نور أيمن</t>
+  </si>
+  <si>
+    <t>Nour Ayman</t>
   </si>
 </sst>
 </file>
@@ -897,7 +1326,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1422,10 +1851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1737,172 +2166,1004 @@
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:7">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="B16" s="4">
+        <v>10344167</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1092831999</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="2:7">
+      <c r="B17" s="4">
+        <v>10344284</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="2:7">
+      <c r="B18" s="4">
+        <v>10344250</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1551584488</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="2:7">
+      <c r="B19" s="4">
+        <v>10344282</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1154809525</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:7">
+      <c r="B20" s="4">
+        <v>10344169</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:7">
+      <c r="B21" s="4">
+        <v>10344173</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1117301562</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="2:7">
+      <c r="B22" s="4">
+        <v>10344309</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1146041916</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="2:7">
+      <c r="B23" s="4">
+        <v>10344188</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1114759572</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="2:7">
+      <c r="B24" s="4">
+        <v>10344168</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1033950513</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="2:7">
+      <c r="B25" s="4">
+        <v>10344240</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1140254052</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:7">
+      <c r="B26" s="4">
+        <v>10344185</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1126128951</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="2:7">
+      <c r="B27" s="4">
+        <v>10344274</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1284234931</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="2:7">
+      <c r="B28" s="4">
+        <v>10344186</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1098670413</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="2:7">
+      <c r="B29" s="4">
+        <v>10344307</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1285622455</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="2:7">
+      <c r="B30" s="4">
+        <v>10344242</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1095204998</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="2:7">
+      <c r="B31" s="4">
+        <v>10344279</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1004911039</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="2:7">
+      <c r="B32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1226223707</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="2:7">
+      <c r="B33" s="4">
+        <v>10344236</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1060392059</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="2:7">
+      <c r="B34" s="4">
+        <v>10344277</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="2:7">
+      <c r="B35" s="4">
+        <v>10344192</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="2:7">
+      <c r="B36" s="4">
+        <v>10344172</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1001474051</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="2:7">
+      <c r="B37" s="4">
+        <v>10344235</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1145149773</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="2:7">
+      <c r="B38" s="4">
+        <v>10344175</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1555097529</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="2:7">
+      <c r="B39" s="4">
+        <v>10344170</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1026041099</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="2:7">
+      <c r="B40" s="4">
+        <v>10344266</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="2:7">
+      <c r="B41" s="4">
+        <v>10344278</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1121899603</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="2:7">
+      <c r="B42" s="4">
+        <v>10344212</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1550894577</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="2:7">
+      <c r="B43" s="4">
+        <v>10344252</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1509946439</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="2:7">
+      <c r="B44" s="4">
+        <v>10344286</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1040334849</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="2:7">
+      <c r="B45" s="4">
+        <v>10344214</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="2:7">
+      <c r="B46" s="4">
+        <v>10344308</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1555975766</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="2:7">
+      <c r="B47" s="4">
+        <v>10344261</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1203091448</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="2:7">
+      <c r="B48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1152879982</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="2:7">
+      <c r="B49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1010720003</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="2:7">
+      <c r="B50" s="4">
+        <v>10343996</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1094442317</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="2:7">
+      <c r="B51" s="4">
+        <v>10343858</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1011662562</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="2:7">
+      <c r="B52" s="4">
+        <v>10343869</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1020842747</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="2:7">
+      <c r="B53" s="4">
+        <v>10343941</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1110620041</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="2:7">
+      <c r="B54" s="4">
+        <v>10343937</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1515410373</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="2:7">
+      <c r="B55" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1068128832</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="2:7">
+      <c r="B56" s="4">
+        <v>10343863</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1091530766</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="2:7">
+      <c r="B57" s="4">
+        <v>10343948</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1158021888</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="2:7">
+      <c r="B58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1150504469</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="2:7">
+      <c r="B59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1121284993</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="2:7">
+      <c r="B60" s="4">
+        <v>10343860</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1129964189</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="2:7">
+      <c r="B61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1147687920</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="2:7">
+      <c r="B62" s="4">
+        <v>10343924</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1115316268</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="2:7">
+      <c r="B63" s="4">
+        <v>10343862</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1004708495</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="2:7">
+      <c r="B64" s="4">
+        <v>10343861</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1018861565</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="2:7">
+      <c r="B65" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1061882345</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/New-ID-5th-Settelment(NotSentYet).xlsx
+++ b/New-ID-5th-Settelment(NotSentYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="225">
   <si>
     <t>ID</t>
   </si>
@@ -642,6 +642,66 @@
   </si>
   <si>
     <t>Faiza Khaled</t>
+  </si>
+  <si>
+    <t>كوبري الدقي</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>محمود أنيس</t>
+  </si>
+  <si>
+    <t>Mahmoud Anis</t>
+  </si>
+  <si>
+    <t>ريان علي نور</t>
+  </si>
+  <si>
+    <t>Reyan Ali Nour</t>
+  </si>
+  <si>
+    <t>سجا عبد السلام</t>
+  </si>
+  <si>
+    <t>Saja Abdelsalam</t>
+  </si>
+  <si>
+    <t>تبيان أزهري</t>
+  </si>
+  <si>
+    <t>Tibyan Azhari</t>
+  </si>
+  <si>
+    <t>مستشفى احمد ماهر</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>دينا توفيق حجاج</t>
+  </si>
+  <si>
+    <t>Dina Tawfik Haggag</t>
+  </si>
+  <si>
+    <t>التعاون</t>
+  </si>
+  <si>
+    <t>عبد الله سليمان</t>
+  </si>
+  <si>
+    <t>Abdallah Soliman</t>
+  </si>
+  <si>
+    <t>راوية الصافي</t>
+  </si>
+  <si>
+    <t>1220116359 / 1023356963</t>
+  </si>
+  <si>
+    <t>Rawyah Alsafi</t>
   </si>
 </sst>
 </file>
@@ -1866,10 +1926,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G68"/>
+  <dimension ref="B1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B68" sqref="B68:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3242,6 +3302,146 @@
         <v>204</v>
       </c>
     </row>
+    <row r="69" ht="15.25" spans="2:7">
+      <c r="B69" s="4">
+        <v>10347418</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1003336191</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" spans="2:7">
+      <c r="B70" s="4">
+        <v>10347427</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1109165438</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" spans="2:7">
+      <c r="B71" s="4">
+        <v>10347428</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1044608425</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="2:7">
+      <c r="B72" s="4">
+        <v>10347429</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1017913776</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" spans="2:7">
+      <c r="B73" s="4">
+        <v>10347419</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1144129655</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" spans="2:7">
+      <c r="B74" s="4">
+        <v>10348095</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1026170107</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="2:7">
+      <c r="B75" s="4">
+        <v>10347420</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/New-ID-5th-Settelment(NotSentYet).xlsx
+++ b/New-ID-5th-Settelment(NotSentYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -702,6 +702,21 @@
   </si>
   <si>
     <t>Rawyah Alsafi</t>
+  </si>
+  <si>
+    <t>يوسف غرانت</t>
+  </si>
+  <si>
+    <t>Youssef Grant</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
+    <t>لوجينا أحمد كامل</t>
+  </si>
+  <si>
+    <t>Lujena Ahmed Kamel</t>
   </si>
 </sst>
 </file>
@@ -1926,10 +1941,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G75"/>
+  <dimension ref="B1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:G75"/>
+      <selection activeCell="B75" sqref="B75:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3442,6 +3457,46 @@
         <v>224</v>
       </c>
     </row>
+    <row r="76" ht="15.25" spans="2:7">
+      <c r="B76" s="4">
+        <v>10348485</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1205310663</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" spans="2:7">
+      <c r="B77" s="4">
+        <v>10348552</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1287010193</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/New-ID-5th-Settelment(NotSentYet).xlsx
+++ b/New-ID-5th-Settelment(NotSentYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -717,6 +717,165 @@
   </si>
   <si>
     <t>Lujena Ahmed Kamel</t>
+  </si>
+  <si>
+    <t>زينا نادر عبد المنعم</t>
+  </si>
+  <si>
+    <t>Xena Nader abdelmoneam</t>
+  </si>
+  <si>
+    <t>بوابه دجله</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد ابراهيم</t>
+  </si>
+  <si>
+    <t>Ahmed Ibrahim</t>
+  </si>
+  <si>
+    <t>بوابة تانية قديمة</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>دهب محمد</t>
+  </si>
+  <si>
+    <t>Dahab Mohamed</t>
+  </si>
+  <si>
+    <t>مدخل حلوان</t>
+  </si>
+  <si>
+    <t>حذيفة قنديل</t>
+  </si>
+  <si>
+    <t>Huzifa Kandil</t>
+  </si>
+  <si>
+    <t>محمد عبدون</t>
+  </si>
+  <si>
+    <t>Mohamed Abdoun</t>
+  </si>
+  <si>
+    <t>رقية هاشم</t>
+  </si>
+  <si>
+    <t>Rokaya Hashiem</t>
+  </si>
+  <si>
+    <t>بهتيم</t>
+  </si>
+  <si>
+    <t>مينا شهدي</t>
+  </si>
+  <si>
+    <t>1101480009 / 1275081680</t>
+  </si>
+  <si>
+    <t>Mina Shohdy</t>
+  </si>
+  <si>
+    <t>يمنى امير عبد الله</t>
+  </si>
+  <si>
+    <t>Umna Amir</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>خالد وليد</t>
+  </si>
+  <si>
+    <t>1503323941/ 24911891811</t>
+  </si>
+  <si>
+    <t>Khalid Waleed</t>
+  </si>
+  <si>
+    <t>فاطمة الزين</t>
+  </si>
+  <si>
+    <t>Fatima Alzain</t>
+  </si>
+  <si>
+    <t>الرمايه</t>
+  </si>
+  <si>
+    <t>محمد العزب</t>
+  </si>
+  <si>
+    <t>1010730975 // WA1118078838</t>
+  </si>
+  <si>
+    <t>Mohamed El-Azab</t>
+  </si>
+  <si>
+    <t>العشرين</t>
+  </si>
+  <si>
+    <t>منتصر الوسيلة</t>
+  </si>
+  <si>
+    <t>Montaser Alwasela</t>
+  </si>
+  <si>
+    <t>ريم عباس</t>
+  </si>
+  <si>
+    <t>Reem Abass</t>
+  </si>
+  <si>
+    <t>المحكمه الدستوريه</t>
+  </si>
+  <si>
+    <t>محمد رمضان</t>
+  </si>
+  <si>
+    <t>Mohamed Ramadan</t>
+  </si>
+  <si>
+    <t>الحصري</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>اسلام نعيم</t>
+  </si>
+  <si>
+    <t>Eslam Naeem</t>
+  </si>
+  <si>
+    <t>روان طارق</t>
+  </si>
+  <si>
+    <t>Rewan Tarek</t>
+  </si>
+  <si>
+    <t>مدخل المعصره</t>
+  </si>
+  <si>
+    <t>دعاء عبد الناصر</t>
+  </si>
+  <si>
+    <t>Doaa Abdelnasser</t>
+  </si>
+  <si>
+    <t>ميدان لبنان</t>
+  </si>
+  <si>
+    <t>هشام الباز</t>
+  </si>
+  <si>
+    <t>Hesham Elbaz</t>
   </si>
 </sst>
 </file>
@@ -1941,10 +2100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G77"/>
+  <dimension ref="B1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:G77"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3497,6 +3656,366 @@
         <v>229</v>
       </c>
     </row>
+    <row r="78" ht="15.25" spans="2:7">
+      <c r="B78" s="4">
+        <v>10349026</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1070454217</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" spans="2:7">
+      <c r="B79" s="4">
+        <v>10349014</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1000037062</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" ht="15.25" spans="2:7">
+      <c r="B80" s="4">
+        <v>10336631</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1121670258</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25" spans="2:7">
+      <c r="B81" s="4">
+        <v>10349015</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1044744639</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" ht="15.25" spans="2:7">
+      <c r="B82" s="4">
+        <v>10349056</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1288271110</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="2:7">
+      <c r="B83" s="4">
+        <v>10349025</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1069684801</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" ht="15.25" spans="2:7">
+      <c r="B84" s="4">
+        <v>10349030</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" ht="15.25" spans="2:7">
+      <c r="B85" s="4">
+        <v>10349032</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1223429209</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" ht="15.25" spans="2:7">
+      <c r="B86" s="4">
+        <v>10349033</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" ht="15.25" spans="2:7">
+      <c r="B87" s="4">
+        <v>10348986</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1155645885</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" ht="15.25" spans="2:7">
+      <c r="B88" s="4">
+        <v>10349017</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" ht="15.25" spans="2:7">
+      <c r="B89" s="4">
+        <v>10349013</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1061512549</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" ht="15.25" spans="2:7">
+      <c r="B90" s="4">
+        <v>10348989</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1555119737</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" ht="15.25" spans="2:7">
+      <c r="B91" s="4">
+        <v>10349016</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1126291393</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" ht="15.25" spans="2:7">
+      <c r="B92" s="4">
+        <v>10347384</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1008169172</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" ht="15.25" spans="2:7">
+      <c r="B93" s="4">
+        <v>10347383</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1207281495</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" ht="15.25" spans="2:7">
+      <c r="B94" s="4">
+        <v>10348085</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1158607339</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" ht="15.25" spans="2:7">
+      <c r="B95" s="4">
+        <v>10348091</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1146739976</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/New-ID-5th-Settelment(NotSentYet).xlsx
+++ b/New-ID-5th-Settelment(NotSentYet).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -876,6 +876,81 @@
   </si>
   <si>
     <t>Hesham Elbaz</t>
+  </si>
+  <si>
+    <t>عبد الرحمن اشرف</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ashraf</t>
+  </si>
+  <si>
+    <t>عبدالله خالد</t>
+  </si>
+  <si>
+    <t>1012795796/249969000088</t>
+  </si>
+  <si>
+    <t>Abdullah Khalid</t>
+  </si>
+  <si>
+    <t>أحمد الهادي عبدالله</t>
+  </si>
+  <si>
+    <t>Ahmed Alhadi Abdalla</t>
+  </si>
+  <si>
+    <t>احمد الحكيم</t>
+  </si>
+  <si>
+    <t>Ahmed Elhakeem</t>
+  </si>
+  <si>
+    <t>احمد محمد يونس</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed younis</t>
+  </si>
+  <si>
+    <t>فاطمة محيي الدين</t>
+  </si>
+  <si>
+    <t>Fatima Mohieldeen</t>
+  </si>
+  <si>
+    <t>مآب ناجي</t>
+  </si>
+  <si>
+    <t>1515496586 / 1552997470</t>
+  </si>
+  <si>
+    <t>Maab Nagi</t>
+  </si>
+  <si>
+    <t>قليوب</t>
+  </si>
+  <si>
+    <t>محمود احمد هلال</t>
+  </si>
+  <si>
+    <t>Mahmoud Ahmed Helal</t>
+  </si>
+  <si>
+    <t>مصطفي احمد علي</t>
+  </si>
+  <si>
+    <t>Mostafa Ahmed Ali</t>
+  </si>
+  <si>
+    <t>عثمان ابراهيم</t>
+  </si>
+  <si>
+    <t>Osman Ibrahim</t>
+  </si>
+  <si>
+    <t>شاهيناز علي</t>
+  </si>
+  <si>
+    <t>Shahinaz Ali</t>
   </si>
 </sst>
 </file>
@@ -2100,10 +2175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G95"/>
+  <dimension ref="B1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:G95"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -4016,6 +4091,226 @@
         <v>282</v>
       </c>
     </row>
+    <row r="96" ht="15.25" spans="2:7">
+      <c r="B96" s="4">
+        <v>10349354</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1119444137</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" ht="15.25" spans="2:7">
+      <c r="B97" s="4">
+        <v>10349489</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" ht="15.25" spans="2:7">
+      <c r="B98" s="4">
+        <v>10349404</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1129849493</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" ht="15.25" spans="2:7">
+      <c r="B99" s="4">
+        <v>10349402</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1061473372</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" ht="15.25" spans="2:7">
+      <c r="B100" s="4">
+        <v>10349491</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1203388919</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" ht="15.25" spans="2:7">
+      <c r="B101" s="4">
+        <v>10349406</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1158530543</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" ht="15.25" spans="2:7">
+      <c r="B102" s="4">
+        <v>10349492</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" ht="15.25" spans="2:7">
+      <c r="B103" s="4">
+        <v>10341186</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1022914574</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" ht="15.25" spans="2:7">
+      <c r="B104" s="4">
+        <v>10349353</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1120332179</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" ht="15.25" spans="2:7">
+      <c r="B105" s="4">
+        <v>10349407</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1555795564</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" ht="15.25" spans="2:7">
+      <c r="B106" s="4">
+        <v>10349490</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1141799206</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
